--- a/Opgave 5.xlsx
+++ b/Opgave 5.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\source\repos\SaxoPUKCompFin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shark\source\repos\VNemirov\SaxoPUKCompFin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E94E4-49D1-492A-875F-5DC1B2EF2588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684C00E8-3C42-45FF-A1E2-0A1B4DE2D5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F04F0EE7-578F-4A8C-8F99-A5534B925A36}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="36285" windowHeight="19665" activeTab="1" xr2:uid="{F04F0EE7-578F-4A8C-8F99-A5534B925A36}"/>
   </bookViews>
   <sheets>
     <sheet name="StrikeGrid" sheetId="1" r:id="rId1"/>
     <sheet name="PMatrix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -133,7 +132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -168,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7653,7 +7652,7 @@
   <dimension ref="A1:CZ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
